--- a/Excel/5장(연습).xlsx
+++ b/Excel/5장(연습).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB80FF8-6588-4616-AF0E-CC542D14C654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFF7F6-3224-4F7A-BF8F-4DE73BD4F67C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="채점표" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>1회 점수분포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민등록번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +751,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,7 +793,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1088,37 +1107,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1137,13 +1156,13 @@
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="40" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1155,9 +1174,9 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="17" t="s">
         <v>35</v>
       </c>
@@ -1183,13 +1202,13 @@
         <f>SUM(F3:J3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="36">
         <f>MAX(K4:K18)</f>
         <v>96.6</v>
       </c>
@@ -1235,12 +1254,18 @@
         <f>AVERAGE(F4:J4)</f>
         <v>61</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="5">
+        <f>_xlfn.RANK.EQ(K4,$K$4:$K$18)</f>
+        <v>15</v>
+      </c>
+      <c r="N4" s="12">
+        <f>_xlfn.PERCENTRANK.INC($K$4:$K$18,K4)</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="36">
         <f>MIN(K4:K18)</f>
         <v>60.25</v>
       </c>
@@ -1286,8 +1311,14 @@
         <f t="shared" ref="L5:L18" si="3">AVERAGE(F5:J5)</f>
         <v>70.599999999999994</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:M18" si="4">_xlfn.RANK.EQ(K5,$K$4:$K$18)</f>
+        <v>14</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" ref="N5:N18" si="5">_xlfn.PERCENTRANK.INC($K$4:$K$18,K5)</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -1330,12 +1361,18 @@
         <f t="shared" si="3"/>
         <v>78.599999999999994</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="42" t="s">
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="5"/>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="P6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="11">
@@ -1378,14 +1415,20 @@
         <f t="shared" si="3"/>
         <v>92.6</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="12"/>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="5"/>
+        <v>0.78500000000000003</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="4">
-        <f>_xlfn.STDEV.S(점수1)</f>
-        <v>13.156566348984745</v>
+        <f>ROUND(STDEV(점수1),1)</f>
+        <v>13.2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1429,14 +1472,20 @@
         <f t="shared" si="3"/>
         <v>78.2</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="12"/>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="5"/>
+        <v>0.35699999999999998</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="4">
-        <f>_xlfn.VAR.S(점수1)</f>
-        <v>173.09523809523776</v>
+        <f>ROUNDDOWN(_xlfn.VAR.S(점수1),0)</f>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1480,8 +1529,14 @@
         <f t="shared" si="3"/>
         <v>74.400000000000006</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="12"/>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="5"/>
+        <v>0.14199999999999999</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1531,8 +1586,14 @@
         <f t="shared" si="3"/>
         <v>91.2</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="12"/>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="5"/>
+        <v>0.85699999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="11">
@@ -1575,12 +1636,18 @@
         <f t="shared" si="3"/>
         <v>76.599999999999994</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="12"/>
-      <c r="P11" s="35" t="s">
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="5"/>
+        <v>0.214</v>
+      </c>
+      <c r="P11" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="11">
@@ -1623,12 +1690,21 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="12"/>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="5"/>
+        <v>0.64200000000000002</v>
+      </c>
       <c r="P12" s="11">
         <v>60</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="4">
+        <f t="array" ref="Q12:Q16">FREQUENCY(점수1,P12:P16)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="11">
@@ -1671,12 +1747,20 @@
         <f t="shared" si="3"/>
         <v>95.6</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="12"/>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="5"/>
+        <v>0.92800000000000005</v>
+      </c>
       <c r="P13" s="11">
         <v>70</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -1719,12 +1803,20 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="12"/>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="5"/>
+        <v>0.42799999999999999</v>
+      </c>
       <c r="P14" s="11">
         <v>80</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="11">
@@ -1767,12 +1859,20 @@
         <f t="shared" si="3"/>
         <v>90.8</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="12"/>
+      <c r="M15" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="5"/>
+        <v>0.71399999999999997</v>
+      </c>
       <c r="P15" s="18">
         <v>90</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="11">
@@ -1815,12 +1915,20 @@
         <f t="shared" si="3"/>
         <v>77.8</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="12"/>
+      <c r="M16" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="5"/>
+        <v>0.28499999999999998</v>
+      </c>
       <c r="P16" s="18">
         <v>100</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="11">
@@ -1863,8 +1971,14 @@
         <f t="shared" si="3"/>
         <v>78.8</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="12"/>
+      <c r="M17" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1">
       <c r="A18" s="11">
@@ -1907,8 +2021,14 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="12"/>
+      <c r="M18" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8"/>
@@ -1956,10 +2076,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1967,38 +2087,40 @@
     <col min="1" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="3.75" customWidth="1"/>
-    <col min="14" max="14" width="6.875" customWidth="1"/>
-    <col min="15" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="16.75" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="6.75" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="11" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="15" max="15" width="6.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:20" ht="24" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="31" t="s">
         <v>60</v>
       </c>
@@ -2014,357 +2136,630 @@
       <c r="E2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="M2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="Q2" s="20" t="s">
+      <c r="P2" s="46"/>
+      <c r="R2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="21" t="str">
+        <f>_xlfn.CONCAT(A3,"-",B3)</f>
+        <v>DB-1</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2" t="str">
+        <f>REPLACE(E3,9,6,"******")</f>
+        <v>981119-2******</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="22"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="Q3" s="23">
+      <c r="I3" s="22" t="str">
+        <f>LEFT(E3,6)</f>
+        <v>981119</v>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f>MID(E3,8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f>LEFT(G3,FIND(",",G3)-1)</f>
+        <v>용산</v>
+      </c>
+      <c r="L3" s="32">
+        <f>DATE(LEFT(H3,4),MID(H3,6,2),RIGHT(H3,2))</f>
+        <v>43891</v>
+      </c>
+      <c r="M3" s="22" t="str">
+        <f ca="1">DATEDIF(L3,TODAY(),"y")&amp;"년"&amp;DATEDIF(L3,TODAY(),"ym")&amp;"개월"</f>
+        <v>5년2개월</v>
+      </c>
+      <c r="O3" s="47">
+        <f ca="1">TODAY()</f>
+        <v>45799</v>
+      </c>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="29">
+        <f ca="1">NOW()</f>
+        <v>45799.618652199075</v>
+      </c>
+      <c r="R3" s="23">
         <v>1</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="S3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="21" t="str">
+        <f t="shared" ref="C4:C12" si="0">_xlfn.CONCAT(A4,"-",B4)</f>
+        <v>DB-2</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F12" si="1">REPLACE(E4,9,6,"******")</f>
+        <v>000615-4******</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="22"/>
-      <c r="N4" s="25" t="s">
+      <c r="I4" s="22" t="str">
+        <f t="shared" ref="I4:I12" si="2">LEFT(E4,6)</f>
+        <v>000615</v>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f t="shared" ref="J4:J12" si="3">MID(E4,8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f t="shared" ref="K4:K12" si="4">LEFT(G4,FIND(",",G4)-1)</f>
+        <v>가평</v>
+      </c>
+      <c r="L4" s="32">
+        <f t="shared" ref="L4:L12" si="5">DATE(LEFT(H4,4),MID(H4,6,2),RIGHT(H4,2))</f>
+        <v>43891</v>
+      </c>
+      <c r="M4" s="22" t="str">
+        <f t="shared" ref="M4:M12" ca="1" si="6">DATEDIF(L4,TODAY(),"y")&amp;"년"&amp;DATEDIF(L4,TODAY(),"ym")&amp;"개월"</f>
+        <v>5년2개월</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="Q4" s="23">
+      <c r="P4" s="6">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2025</v>
+      </c>
+      <c r="R4" s="23">
         <v>2</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>DB-3</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>010727-3******</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="22"/>
-      <c r="N5" s="25" t="s">
+      <c r="I5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>010727</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>의정부</v>
+      </c>
+      <c r="L5" s="32">
+        <f t="shared" si="5"/>
+        <v>44440</v>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>3년8개월</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="Q5" s="23">
+      <c r="P5" s="6">
+        <f ca="1">MONTH(TODAY())</f>
+        <v>5</v>
+      </c>
+      <c r="R5" s="23">
         <v>44562</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="S5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="6">
+      <c r="T5" s="6">
         <v>44562</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PL-1</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>991020-1******</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="22"/>
-      <c r="N6" s="25" t="s">
+      <c r="I6" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>991020</v>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>김포</v>
+      </c>
+      <c r="L6" s="32">
+        <f t="shared" si="5"/>
+        <v>43525</v>
+      </c>
+      <c r="M6" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>6년2개월</v>
+      </c>
+      <c r="O6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="23">
+      <c r="P6" s="6">
+        <f ca="1">DAY(TODAY())</f>
+        <v>22</v>
+      </c>
+      <c r="R6" s="23">
         <v>44563</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>44563</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PL-2</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>000625-4******</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="I7" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>000625</v>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>서초</v>
+      </c>
+      <c r="L7" s="32">
+        <f t="shared" si="5"/>
+        <v>44075</v>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4년8개월</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>DB-4</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>961230-2******</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="I8" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>961230</v>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>성남</v>
+      </c>
+      <c r="L8" s="32">
+        <f t="shared" si="5"/>
+        <v>44166</v>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4년5개월</v>
+      </c>
+      <c r="Q8" s="52">
+        <f ca="1">TODAY()</f>
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>DB-5</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>970303-2******</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="I9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>970303</v>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>남양주</v>
+      </c>
+      <c r="L9" s="32">
+        <f t="shared" si="5"/>
+        <v>44317</v>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4년0개월</v>
+      </c>
+      <c r="Q9">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="21">
         <v>3</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PL-3</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>010421-3******</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="I10" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>010421</v>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>동대문</v>
+      </c>
+      <c r="L10" s="32">
+        <f t="shared" si="5"/>
+        <v>43952</v>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>5년0개월</v>
+      </c>
+      <c r="Q10">
+        <f ca="1">MONTH(TODAY())</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>DB-6</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>981020-1******</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="I11" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>981020</v>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>도봉</v>
+      </c>
+      <c r="L11" s="32">
+        <f t="shared" si="5"/>
+        <v>43586</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>6년0개월</v>
+      </c>
+      <c r="Q11">
+        <f ca="1">DAY(TODAY())</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="21">
         <v>4</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PL-4</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>000923-3******</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.25" customHeight="1">
+      <c r="I12" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>000923</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>영등포</v>
+      </c>
+      <c r="L12" s="32">
+        <f t="shared" si="5"/>
+        <v>44440</v>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>3년8개월</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20.25" customHeight="1">
       <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="49"/>
+      <c r="F14" s="51" t="str">
+        <f>REPLACE(E3,9,6,"******")</f>
+        <v>981119-2******</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="52">
+        <f>DATE(LEFT(H3,4),MID(H3,6,2),RIGHT(H3,2))</f>
+        <v>43891</v>
+      </c>
+      <c r="M14" s="50" t="str">
+        <f ca="1">DATEDIF(L3,TODAY(),"y")&amp;"년"&amp;DATEDIF(L3,TODAY(),"ym")&amp;"개월"</f>
+        <v>5년2개월</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2379,8 +2774,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2394,15 +2789,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="33" t="s">
@@ -2437,10 +2832,22 @@
       <c r="C3" s="27">
         <v>44600.602141203701</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="28">
+        <f>C3-B3</f>
+        <v>0.12841435184964212</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="0">HOUR(D3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <f>MINUTE(D3)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SECOND(D3)</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -2452,10 +2859,22 @@
       <c r="C4" s="27">
         <v>44600.690057870372</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="28">
+        <f t="shared" ref="D4:D12" si="1">C4-B4</f>
+        <v>0.21025462963007158</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F12" si="2">MINUTE(D4)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G12" si="3">SECOND(D4)</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -2467,10 +2886,22 @@
       <c r="C5" s="27">
         <v>44600.635567129626</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16832175925810589</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -2482,10 +2913,22 @@
       <c r="C6" s="27">
         <v>44600.548668981479</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="28">
+        <f t="shared" si="1"/>
+        <v>0.10057870369928423</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -2497,10 +2940,22 @@
       <c r="C7" s="27">
         <v>44600.604224537034</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16124999999738066</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -2512,10 +2967,22 @@
       <c r="C8" s="27">
         <v>44600.653749999998</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17062499999883585</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -2527,10 +2994,22 @@
       <c r="C9" s="27">
         <v>44600.60429398148</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="28">
+        <f t="shared" si="1"/>
+        <v>0.12710648147913162</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -2542,10 +3021,22 @@
       <c r="C10" s="27">
         <v>44600.709201388891</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.27181712962919846</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -2557,10 +3048,22 @@
       <c r="C11" s="27">
         <v>44600.626886574071</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14517361110483762</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
@@ -2572,10 +3075,22 @@
       <c r="C12" s="27">
         <v>44600.635787037034</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.19159722221957054</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1"/>
     <row r="14" spans="1:7">
